--- a/data/credentials.xlsx
+++ b/data/credentials.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Username</t>
   </si>
@@ -22,19 +22,13 @@
     <t>Password</t>
   </si>
   <si>
+    <t>Outlook Credentials</t>
+  </si>
+  <si>
     <t>armineasryan29@gmail.com</t>
   </si>
   <si>
     <t>armenuhi1969</t>
-  </si>
-  <si>
-    <t>xorenharutyunyan00@gmail.com</t>
-  </si>
-  <si>
-    <t>khoren2000</t>
-  </si>
-  <si>
-    <t>Outlook Credentials</t>
   </si>
   <si>
     <t>gevorgadamyan@outlook.com</t>
@@ -43,8 +37,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,7 +63,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF0000ff"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -78,14 +73,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -97,11 +84,33 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF558ED5"/>
+        <fgColor rgb="FF558ed5"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -110,43 +119,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -157,10 +158,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -198,71 +199,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -290,7 +291,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -313,11 +314,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -326,13 +327,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -342,7 +343,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -351,7 +352,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -360,7 +361,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -368,10 +369,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -440,54 +441,40 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" style="5" width="29.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="32.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="38.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/credentials.xlsx
+++ b/data/credentials.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ET01\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55685887-7342-40FE-A2F6-1AD2A20056C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="690" yWindow="420" windowWidth="10425" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>Username</t>
   </si>
@@ -32,14 +38,97 @@
   </si>
   <si>
     <t>gevorgadamyan@outlook.com</t>
+  </si>
+  <si>
+    <t>andranik.khachatryan.12151990@gmail.com</t>
+  </si>
+  <si>
+    <t>andranik1990</t>
+  </si>
+  <si>
+    <t>drbliana@gmail.com</t>
+  </si>
+  <si>
+    <t>LIANA1971</t>
+  </si>
+  <si>
+    <t>karapetghukasyan1965@gmail.com</t>
+  </si>
+  <si>
+    <t>karapet1965</t>
+  </si>
+  <si>
+    <t>lyov060@mail.ru</t>
+  </si>
+  <si>
+    <t>levon2002</t>
+  </si>
+  <si>
+    <t>araksik1991@mail.ru</t>
+  </si>
+  <si>
+    <t>araksya1991</t>
+  </si>
+  <si>
+    <t>karine1962</t>
+  </si>
+  <si>
+    <t>baghdasaryankarine2@gmail.com</t>
+  </si>
+  <si>
+    <t>marinegevorgyan8080@gmail.com</t>
+  </si>
+  <si>
+    <t>marine1989</t>
+  </si>
+  <si>
+    <t>karalina.a.73@bk.ru</t>
+  </si>
+  <si>
+    <t>karine1973</t>
+  </si>
+  <si>
+    <t>anna.amirkhanyan.83@mail.ru</t>
+  </si>
+  <si>
+    <t>anna1983</t>
+  </si>
+  <si>
+    <t>ruzik.levonyan92@mail.ru</t>
+  </si>
+  <si>
+    <t>ruzanna1992</t>
+  </si>
+  <si>
+    <t>arushanyan.natali@mail.ru</t>
+  </si>
+  <si>
+    <t>natali1996</t>
+  </si>
+  <si>
+    <t>lusine.gevorgyan.78@bk.ru</t>
+  </si>
+  <si>
+    <t>lusine1978</t>
+  </si>
+  <si>
+    <t>ashotstepanyan@hotmail.com</t>
+  </si>
+  <si>
+    <t>satenik1957</t>
+  </si>
+  <si>
+    <t>nalchajyanaram1964@gmail.com </t>
+  </si>
+  <si>
+    <t>nalchajyan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,7 +152,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000ff"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -73,6 +162,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -84,7 +181,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF558ed5"/>
+        <fgColor rgb="FF558ED5"/>
       </patternFill>
     </fill>
   </fills>
@@ -98,16 +195,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -119,35 +216,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -158,10 +264,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -199,71 +305,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -291,7 +397,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -314,11 +420,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -327,13 +433,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -343,7 +449,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -352,7 +458,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -361,7 +467,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -369,10 +475,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -437,22 +543,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="29.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="32.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="38.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="40.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -474,7 +582,178 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{CA5F03AF-DE93-4A7B-9509-F52BD1E98D47}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{D488A65D-A976-4C8E-9338-27DE21440E05}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{41C924B4-ED65-4A7D-9C80-8F2770E56284}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{7BE502E3-B8A5-4CD0-B52A-55DE31BDC91F}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{33202F9D-D2BF-41D7-ACC6-934F0F7F87E8}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{3B347325-240F-4C47-8429-A66491F35FF3}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{81F82768-BB18-4CF7-8495-B8F07C1A1B04}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{6AA0D168-A5AC-4A21-AF92-64096F08FA09}"/>
+    <hyperlink ref="A11" r:id="rId9" xr:uid="{CCF7DCE5-5C94-4939-A06E-3A2A7C1A381A}"/>
+    <hyperlink ref="A12" r:id="rId10" xr:uid="{DAE8AD5C-BAAD-40F6-A95A-033885D39823}"/>
+    <hyperlink ref="A13" r:id="rId11" xr:uid="{24027BBB-A5B1-4C00-B6C6-33E373DC3978}"/>
+    <hyperlink ref="A14" r:id="rId12" xr:uid="{DD20E6B6-1B99-4310-844C-EBB8A998B58F}"/>
+    <hyperlink ref="A15" r:id="rId13" xr:uid="{1227072B-37D2-4D44-B30A-ACD1CC96E170}"/>
+    <hyperlink ref="A16" r:id="rId14" xr:uid="{3913CC60-A5C8-48ED-8ED2-4CFF08FF2415}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId15"/>
 </worksheet>
 </file>
--- a/data/credentials.xlsx
+++ b/data/credentials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ET01\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55685887-7342-40FE-A2F6-1AD2A20056C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBBF93D-BD32-41ED-AF02-F50A95B0CBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="420" windowWidth="10425" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="17580" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Username</t>
   </si>
@@ -550,7 +550,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,9 +589,7 @@
       <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -600,9 +598,7 @@
       <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -611,9 +607,7 @@
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -622,9 +616,7 @@
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -633,9 +625,7 @@
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -644,9 +634,7 @@
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -655,9 +643,7 @@
       <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -666,9 +652,7 @@
       <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -677,9 +661,7 @@
       <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -688,9 +670,7 @@
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -699,9 +679,7 @@
       <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -710,9 +688,7 @@
       <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -721,9 +697,7 @@
       <c r="B15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -732,9 +706,7 @@
       <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="C16" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/credentials.xlsx
+++ b/data/credentials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ET01\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBBF93D-BD32-41ED-AF02-F50A95B0CBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16F973B-5700-466E-BF64-3F93C29494F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="17580" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="12450" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Username</t>
   </si>
@@ -122,6 +122,36 @@
   </si>
   <si>
     <t>nalchajyan</t>
+  </si>
+  <si>
+    <t>gvarderesyan@mail.ru</t>
+  </si>
+  <si>
+    <t>garnik1986</t>
+  </si>
+  <si>
+    <t>hov.man1998@mail.ru</t>
+  </si>
+  <si>
+    <t>heghnar1969</t>
+  </si>
+  <si>
+    <t>dianamartayan@bk.ru</t>
+  </si>
+  <si>
+    <t>hripsime1952</t>
+  </si>
+  <si>
+    <t>lauraasatryan@gmail.com</t>
+  </si>
+  <si>
+    <t>armen1966</t>
+  </si>
+  <si>
+    <t>arpine_mxitaryan@mail.ru</t>
+  </si>
+  <si>
+    <t>arpine1979</t>
   </si>
 </sst>
 </file>
@@ -547,10 +577,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,6 +737,46 @@
         <v>33</v>
       </c>
       <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -724,8 +794,13 @@
     <hyperlink ref="A14" r:id="rId12" xr:uid="{DD20E6B6-1B99-4310-844C-EBB8A998B58F}"/>
     <hyperlink ref="A15" r:id="rId13" xr:uid="{1227072B-37D2-4D44-B30A-ACD1CC96E170}"/>
     <hyperlink ref="A16" r:id="rId14" xr:uid="{3913CC60-A5C8-48ED-8ED2-4CFF08FF2415}"/>
+    <hyperlink ref="A17" r:id="rId15" xr:uid="{D81EB971-8E7B-40B6-905E-594EE668F1FB}"/>
+    <hyperlink ref="A18" r:id="rId16" xr:uid="{80F910DD-4284-49C1-954E-F05FA9155F0F}"/>
+    <hyperlink ref="A19" r:id="rId17" xr:uid="{AE6DB0BC-4F0F-432E-8180-DC4959A0420D}"/>
+    <hyperlink ref="A20" r:id="rId18" xr:uid="{2CB7AC23-3F91-4C2F-81B8-7E4598BCB391}"/>
+    <hyperlink ref="A21" r:id="rId19" xr:uid="{2D6314C5-7686-4053-98C7-679150CB3293}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId20"/>
 </worksheet>
 </file>
--- a/data/credentials.xlsx
+++ b/data/credentials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ET01\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16F973B-5700-466E-BF64-3F93C29494F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169F636F-F4CB-4447-955E-A126CDA2E495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="12450" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Username</t>
   </si>
@@ -40,18 +40,6 @@
     <t>gevorgadamyan@outlook.com</t>
   </si>
   <si>
-    <t>andranik.khachatryan.12151990@gmail.com</t>
-  </si>
-  <si>
-    <t>andranik1990</t>
-  </si>
-  <si>
-    <t>drbliana@gmail.com</t>
-  </si>
-  <si>
-    <t>LIANA1971</t>
-  </si>
-  <si>
     <t>karapetghukasyan1965@gmail.com</t>
   </si>
   <si>
@@ -64,12 +52,6 @@
     <t>levon2002</t>
   </si>
   <si>
-    <t>araksik1991@mail.ru</t>
-  </si>
-  <si>
-    <t>araksya1991</t>
-  </si>
-  <si>
     <t>karine1962</t>
   </si>
   <si>
@@ -106,12 +88,6 @@
     <t>natali1996</t>
   </si>
   <si>
-    <t>lusine.gevorgyan.78@bk.ru</t>
-  </si>
-  <si>
-    <t>lusine1978</t>
-  </si>
-  <si>
     <t>ashotstepanyan@hotmail.com</t>
   </si>
   <si>
@@ -128,30 +104,6 @@
   </si>
   <si>
     <t>garnik1986</t>
-  </si>
-  <si>
-    <t>hov.man1998@mail.ru</t>
-  </si>
-  <si>
-    <t>heghnar1969</t>
-  </si>
-  <si>
-    <t>dianamartayan@bk.ru</t>
-  </si>
-  <si>
-    <t>hripsime1952</t>
-  </si>
-  <si>
-    <t>lauraasatryan@gmail.com</t>
-  </si>
-  <si>
-    <t>armen1966</t>
-  </si>
-  <si>
-    <t>arpine_mxitaryan@mail.ru</t>
-  </si>
-  <si>
-    <t>arpine1979</t>
   </si>
 </sst>
 </file>
@@ -577,10 +529,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,15 +584,15 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -658,16 +610,16 @@
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -685,7 +637,7 @@
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -694,7 +646,7 @@
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -712,95 +664,38 @@
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>43</v>
-      </c>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{CA5F03AF-DE93-4A7B-9509-F52BD1E98D47}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{D488A65D-A976-4C8E-9338-27DE21440E05}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{41C924B4-ED65-4A7D-9C80-8F2770E56284}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{7BE502E3-B8A5-4CD0-B52A-55DE31BDC91F}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{33202F9D-D2BF-41D7-ACC6-934F0F7F87E8}"/>
-    <hyperlink ref="A8" r:id="rId6" xr:uid="{3B347325-240F-4C47-8429-A66491F35FF3}"/>
-    <hyperlink ref="A9" r:id="rId7" xr:uid="{81F82768-BB18-4CF7-8495-B8F07C1A1B04}"/>
-    <hyperlink ref="A10" r:id="rId8" xr:uid="{6AA0D168-A5AC-4A21-AF92-64096F08FA09}"/>
-    <hyperlink ref="A11" r:id="rId9" xr:uid="{CCF7DCE5-5C94-4939-A06E-3A2A7C1A381A}"/>
-    <hyperlink ref="A12" r:id="rId10" xr:uid="{DAE8AD5C-BAAD-40F6-A95A-033885D39823}"/>
-    <hyperlink ref="A13" r:id="rId11" xr:uid="{24027BBB-A5B1-4C00-B6C6-33E373DC3978}"/>
-    <hyperlink ref="A14" r:id="rId12" xr:uid="{DD20E6B6-1B99-4310-844C-EBB8A998B58F}"/>
-    <hyperlink ref="A15" r:id="rId13" xr:uid="{1227072B-37D2-4D44-B30A-ACD1CC96E170}"/>
-    <hyperlink ref="A16" r:id="rId14" xr:uid="{3913CC60-A5C8-48ED-8ED2-4CFF08FF2415}"/>
-    <hyperlink ref="A17" r:id="rId15" xr:uid="{D81EB971-8E7B-40B6-905E-594EE668F1FB}"/>
-    <hyperlink ref="A18" r:id="rId16" xr:uid="{80F910DD-4284-49C1-954E-F05FA9155F0F}"/>
-    <hyperlink ref="A19" r:id="rId17" xr:uid="{AE6DB0BC-4F0F-432E-8180-DC4959A0420D}"/>
-    <hyperlink ref="A20" r:id="rId18" xr:uid="{2CB7AC23-3F91-4C2F-81B8-7E4598BCB391}"/>
-    <hyperlink ref="A21" r:id="rId19" xr:uid="{2D6314C5-7686-4053-98C7-679150CB3293}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{41C924B4-ED65-4A7D-9C80-8F2770E56284}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{7BE502E3-B8A5-4CD0-B52A-55DE31BDC91F}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{3B347325-240F-4C47-8429-A66491F35FF3}"/>
+    <hyperlink ref="A6" r:id="rId4" xr:uid="{81F82768-BB18-4CF7-8495-B8F07C1A1B04}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{6AA0D168-A5AC-4A21-AF92-64096F08FA09}"/>
+    <hyperlink ref="A8" r:id="rId6" xr:uid="{CCF7DCE5-5C94-4939-A06E-3A2A7C1A381A}"/>
+    <hyperlink ref="A9" r:id="rId7" xr:uid="{DAE8AD5C-BAAD-40F6-A95A-033885D39823}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{24027BBB-A5B1-4C00-B6C6-33E373DC3978}"/>
+    <hyperlink ref="A11" r:id="rId9" xr:uid="{1227072B-37D2-4D44-B30A-ACD1CC96E170}"/>
+    <hyperlink ref="A12" r:id="rId10" xr:uid="{3913CC60-A5C8-48ED-8ED2-4CFF08FF2415}"/>
+    <hyperlink ref="A13" r:id="rId11" xr:uid="{D81EB971-8E7B-40B6-905E-594EE668F1FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>
 </worksheet>
 </file>
--- a/data/credentials.xlsx
+++ b/data/credentials.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ET01\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169F636F-F4CB-4447-955E-A126CDA2E495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Username</t>
   </si>
@@ -52,16 +46,10 @@
     <t>levon2002</t>
   </si>
   <si>
+    <t>baghdasaryankarine2@gmail.com</t>
+  </si>
+  <si>
     <t>karine1962</t>
-  </si>
-  <si>
-    <t>baghdasaryankarine2@gmail.com</t>
-  </si>
-  <si>
-    <t>marinegevorgyan8080@gmail.com</t>
-  </si>
-  <si>
-    <t>marine1989</t>
   </si>
   <si>
     <t>karalina.a.73@bk.ru</t>
@@ -109,52 +97,201 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,10 +301,197 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF558ED5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -191,51 +515,326 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -520,182 +1119,172 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5714285714286" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.8571428571429" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7142857142857" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="19.5" customHeight="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="19.5" customHeight="1" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="4"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="5"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="6"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{41C924B4-ED65-4A7D-9C80-8F2770E56284}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{7BE502E3-B8A5-4CD0-B52A-55DE31BDC91F}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{3B347325-240F-4C47-8429-A66491F35FF3}"/>
-    <hyperlink ref="A6" r:id="rId4" xr:uid="{81F82768-BB18-4CF7-8495-B8F07C1A1B04}"/>
-    <hyperlink ref="A7" r:id="rId5" xr:uid="{6AA0D168-A5AC-4A21-AF92-64096F08FA09}"/>
-    <hyperlink ref="A8" r:id="rId6" xr:uid="{CCF7DCE5-5C94-4939-A06E-3A2A7C1A381A}"/>
-    <hyperlink ref="A9" r:id="rId7" xr:uid="{DAE8AD5C-BAAD-40F6-A95A-033885D39823}"/>
-    <hyperlink ref="A10" r:id="rId8" xr:uid="{24027BBB-A5B1-4C00-B6C6-33E373DC3978}"/>
-    <hyperlink ref="A11" r:id="rId9" xr:uid="{1227072B-37D2-4D44-B30A-ACD1CC96E170}"/>
-    <hyperlink ref="A12" r:id="rId10" xr:uid="{3913CC60-A5C8-48ED-8ED2-4CFF08FF2415}"/>
-    <hyperlink ref="A13" r:id="rId11" xr:uid="{D81EB971-8E7B-40B6-905E-594EE668F1FB}"/>
+    <hyperlink ref="A3" r:id="rId1" display="karapetghukasyan1965@gmail.com"/>
+    <hyperlink ref="A4" r:id="rId2" display="lyov060@mail.ru"/>
+    <hyperlink ref="A5" r:id="rId3" display="baghdasaryankarine2@gmail.com"/>
+    <hyperlink ref="A6" r:id="rId4" display="karalina.a.73@bk.ru"/>
+    <hyperlink ref="A7" r:id="rId5" display="anna.amirkhanyan.83@mail.ru"/>
+    <hyperlink ref="A8" r:id="rId6" display="ruzik.levonyan92@mail.ru"/>
+    <hyperlink ref="A9" r:id="rId7" display="arushanyan.natali@mail.ru"/>
+    <hyperlink ref="A10" r:id="rId8" display="ashotstepanyan@hotmail.com"/>
+    <hyperlink ref="A11" r:id="rId9" display="nalchajyanaram1964@gmail.com "/>
+    <hyperlink ref="A12" r:id="rId10" display="gvarderesyan@mail.ru"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/credentials.xlsx
+++ b/data/credentials.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Username</t>
   </si>
@@ -80,12 +80,6 @@
   </si>
   <si>
     <t>satenik1957</t>
-  </si>
-  <si>
-    <t>nalchajyanaram1964@gmail.com </t>
-  </si>
-  <si>
-    <t>nalchajyan</t>
   </si>
   <si>
     <t>gvarderesyan@mail.ru</t>
@@ -99,12 +93,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,14 +150,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,30 +188,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,6 +202,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -241,51 +272,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,31 +293,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,151 +455,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,6 +517,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -541,15 +572,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,184 +599,149 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -775,61 +762,61 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="20% — Акцент3" xfId="1" builtinId="38"/>
+    <cellStyle name="Денежный [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="40% — Акцент5" xfId="3" builtinId="47"/>
+    <cellStyle name="Хороший" xfId="4" builtinId="26"/>
+    <cellStyle name="Запятая [0]" xfId="5" builtinId="6"/>
+    <cellStyle name="Денежный" xfId="6" builtinId="4"/>
+    <cellStyle name="Запятая" xfId="7" builtinId="3"/>
+    <cellStyle name="40% — Акцент6" xfId="8" builtinId="51"/>
+    <cellStyle name="Процент" xfId="9" builtinId="5"/>
+    <cellStyle name="20% — Акцент2" xfId="10" builtinId="34"/>
+    <cellStyle name="Итого" xfId="11" builtinId="25"/>
+    <cellStyle name="Вывод" xfId="12" builtinId="21"/>
+    <cellStyle name="Гиперссылка" xfId="13" builtinId="8"/>
+    <cellStyle name="40% — Акцент4" xfId="14" builtinId="43"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9"/>
+    <cellStyle name="Примечание" xfId="16" builtinId="10"/>
+    <cellStyle name="Предупреждающий текст" xfId="17" builtinId="11"/>
+    <cellStyle name="Заголовок" xfId="18" builtinId="15"/>
+    <cellStyle name="Пояснительный текст" xfId="19" builtinId="53"/>
+    <cellStyle name="Заголовок 1" xfId="20" builtinId="16"/>
+    <cellStyle name="Заголовок 2" xfId="21" builtinId="17"/>
+    <cellStyle name="Заголовок 3" xfId="22" builtinId="18"/>
+    <cellStyle name="Заголовок 4" xfId="23" builtinId="19"/>
+    <cellStyle name="Ввод" xfId="24" builtinId="20"/>
+    <cellStyle name="Проверить ячейку" xfId="25" builtinId="23"/>
+    <cellStyle name="Вычисление" xfId="26" builtinId="22"/>
+    <cellStyle name="Связанная ячейка" xfId="27" builtinId="24"/>
+    <cellStyle name="Плохой" xfId="28" builtinId="27"/>
+    <cellStyle name="Акцент5" xfId="29" builtinId="45"/>
+    <cellStyle name="Нейтральный" xfId="30" builtinId="28"/>
+    <cellStyle name="Акцент1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% — Акцент1" xfId="32" builtinId="30"/>
+    <cellStyle name="40% — Акцент1" xfId="33" builtinId="31"/>
+    <cellStyle name="20% — Акцент5" xfId="34" builtinId="46"/>
+    <cellStyle name="60% — Акцент1" xfId="35" builtinId="32"/>
+    <cellStyle name="Акцент2" xfId="36" builtinId="33"/>
+    <cellStyle name="40% — Акцент2" xfId="37" builtinId="35"/>
+    <cellStyle name="20% — Акцент6" xfId="38" builtinId="50"/>
+    <cellStyle name="60% — Акцент2" xfId="39" builtinId="36"/>
+    <cellStyle name="Акцент3" xfId="40" builtinId="37"/>
+    <cellStyle name="40% — Акцент3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% — Акцент3" xfId="42" builtinId="40"/>
+    <cellStyle name="Акцент4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% — Акцент4" xfId="44" builtinId="42"/>
+    <cellStyle name="60% — Акцент4" xfId="45" builtinId="44"/>
+    <cellStyle name="60% — Акцент5" xfId="46" builtinId="48"/>
+    <cellStyle name="Акцент6" xfId="47" builtinId="49"/>
+    <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1127,10 +1114,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A11" sqref="$A11:$XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1235,7 +1222,7 @@
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1243,13 +1230,7 @@
       </c>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
+    <row r="12" spans="3:3">
       <c r="C12" s="5"/>
     </row>
     <row r="13" spans="3:3">
@@ -1258,17 +1239,14 @@
     <row r="14" spans="3:3">
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="3:3">
-      <c r="C15" s="5"/>
+    <row r="16" spans="1:1">
+      <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1280,8 +1258,7 @@
     <hyperlink ref="A8" r:id="rId6" display="ruzik.levonyan92@mail.ru"/>
     <hyperlink ref="A9" r:id="rId7" display="arushanyan.natali@mail.ru"/>
     <hyperlink ref="A10" r:id="rId8" display="ashotstepanyan@hotmail.com"/>
-    <hyperlink ref="A11" r:id="rId9" display="nalchajyanaram1964@gmail.com "/>
-    <hyperlink ref="A12" r:id="rId10" display="gvarderesyan@mail.ru"/>
+    <hyperlink ref="A11" r:id="rId9" display="gvarderesyan@mail.ru"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/data/credentials.xlsx
+++ b/data/credentials.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Username</t>
   </si>
@@ -44,12 +44,6 @@
   </si>
   <si>
     <t>levon2002</t>
-  </si>
-  <si>
-    <t>baghdasaryankarine2@gmail.com</t>
-  </si>
-  <si>
-    <t>karine1962</t>
   </si>
   <si>
     <t>karalina.a.73@bk.ru</t>
@@ -91,9 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,7 +110,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000ff"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -134,6 +127,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -144,7 +145,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF558ed5"/>
+        <fgColor rgb="FF558ED5"/>
       </patternFill>
     </fill>
   </fills>
@@ -158,16 +159,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -179,47 +180,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -230,10 +232,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -271,71 +273,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -363,7 +365,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -386,11 +388,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -399,13 +401,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -415,7 +417,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -424,7 +426,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -433,7 +435,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -441,10 +443,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -513,18 +515,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="40.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="32.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="38.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="40.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -546,8 +550,8 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -555,7 +559,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -564,7 +568,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -573,7 +577,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -582,7 +586,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -591,7 +595,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -600,7 +604,7 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -609,7 +613,7 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -618,51 +622,45 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>23</v>
-      </c>
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="6"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="4"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/credentials.xlsx
+++ b/data/credentials.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Username</t>
   </si>
@@ -56,12 +56,6 @@
   </si>
   <si>
     <t>anna1983</t>
-  </si>
-  <si>
-    <t>ruzik.levonyan92@mail.ru</t>
-  </si>
-  <si>
-    <t>ruzanna1992</t>
   </si>
   <si>
     <t>arushanyan.natali@mail.ru</t>
@@ -85,8 +79,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,7 +105,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF0000ff"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -127,14 +122,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -145,7 +132,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF558ED5"/>
+        <fgColor rgb="FF558ed5"/>
       </patternFill>
     </fill>
   </fills>
@@ -159,16 +146,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -180,48 +167,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="10">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -232,10 +218,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -273,71 +259,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -365,7 +351,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -388,11 +374,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -401,13 +387,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -417,7 +403,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -426,7 +412,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -435,7 +421,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -443,10 +429,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -515,20 +501,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="8" width="40.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="9" width="32.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="38.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -550,8 +534,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -559,7 +543,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -568,7 +552,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -577,7 +561,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -586,7 +570,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -595,7 +579,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -604,7 +588,7 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -613,54 +597,42 @@
       </c>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="4"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="4"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="4"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/credentials.xlsx
+++ b/data/credentials.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Username</t>
   </si>
@@ -56,12 +56,6 @@
   </si>
   <si>
     <t>anna1983</t>
-  </si>
-  <si>
-    <t>arushanyan.natali@mail.ru</t>
-  </si>
-  <si>
-    <t>natali1996</t>
   </si>
   <si>
     <t>ashotstepanyan@hotmail.com</t>
@@ -79,8 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,7 +98,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000ff"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -132,7 +125,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF558ed5"/>
+        <fgColor rgb="FF558ED5"/>
       </patternFill>
     </fill>
   </fills>
@@ -146,16 +139,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -171,43 +164,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -218,10 +207,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -259,71 +248,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -351,7 +340,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -374,11 +363,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -387,13 +376,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -403,7 +392,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -412,7 +401,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -421,7 +410,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -429,10 +418,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -501,18 +490,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="40.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="32.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="38.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="40.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -534,7 +525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -543,7 +534,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -552,7 +543,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -561,7 +552,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -570,7 +561,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -579,7 +570,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -588,49 +579,40 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>19</v>
-      </c>
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="6"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="4"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/credentials.xlsx
+++ b/data/credentials.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Username</t>
   </si>
@@ -56,12 +56,6 @@
   </si>
   <si>
     <t>anna1983</t>
-  </si>
-  <si>
-    <t>arushanyan.natali@mail.ru</t>
-  </si>
-  <si>
-    <t>natali1996</t>
   </si>
   <si>
     <t>ashotstepanyan@hotmail.com</t>
@@ -81,7 +75,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,12 +107,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -170,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -185,9 +173,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -501,15 +486,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="40.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="9" width="32.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="9" width="38.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="40.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="32.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="38.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -589,48 +574,39 @@
       <c r="C8" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="4"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/credentials.xlsx
+++ b/data/credentials.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -73,8 +73,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,7 +99,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF0000ff"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -106,12 +107,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -125,7 +120,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF558ED5"/>
+        <fgColor rgb="FF558ed5"/>
       </patternFill>
     </fill>
   </fills>
@@ -139,16 +134,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -163,40 +158,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -207,10 +203,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -248,71 +244,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -340,7 +336,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -363,11 +359,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -376,13 +372,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -392,7 +388,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -401,7 +397,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -410,7 +406,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -418,10 +414,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -492,18 +488,16 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="7" width="40.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="32.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="38.71928571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -525,7 +519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -534,7 +528,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -543,7 +537,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -552,7 +546,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
@@ -561,7 +555,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -570,7 +564,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -579,40 +573,40 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="4"/>
     </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="4"/>
     </row>
-    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="4"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/credentials.xlsx
+++ b/data/credentials.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9330983B-0D09-43C2-B4C3-EC9E4A2FEA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Username</t>
   </si>
@@ -25,56 +31,61 @@
     <t>Outlook Credentials</t>
   </si>
   <si>
-    <t>armineasryan29@gmail.com</t>
-  </si>
-  <si>
-    <t>armenuhi1969</t>
-  </si>
-  <si>
     <t>datacheckernotif@outlook.com</t>
   </si>
   <si>
-    <t>karapetghukasyan1965@gmail.com</t>
-  </si>
-  <si>
-    <t>karapet1965</t>
-  </si>
-  <si>
-    <t>lyov060@mail.ru</t>
-  </si>
-  <si>
-    <t>levon2002</t>
-  </si>
-  <si>
-    <t>karalina.a.73@bk.ru</t>
-  </si>
-  <si>
-    <t>karine1973</t>
-  </si>
-  <si>
-    <t>anna.amirkhanyan.83@mail.ru</t>
-  </si>
-  <si>
-    <t>anna1983</t>
-  </si>
-  <si>
-    <t>ashotstepanyan@hotmail.com</t>
-  </si>
-  <si>
-    <t>satenik1957</t>
-  </si>
-  <si>
-    <t>gvarderesyan@mail.ru</t>
-  </si>
-  <si>
-    <t>garnik1986</t>
+    <t>edgar.avetisyan.2013@mail.ru</t>
+  </si>
+  <si>
+    <t>edgar1973</t>
+  </si>
+  <si>
+    <t>margarit1964</t>
+  </si>
+  <si>
+    <t>angelvoskanyan1964@mail.ru</t>
+  </si>
+  <si>
+    <t>vgf1075@gmail.com</t>
+  </si>
+  <si>
+    <t>fahrad1950</t>
+  </si>
+  <si>
+    <t>hayastxer83@mail.ru</t>
+  </si>
+  <si>
+    <t>arman1979</t>
+  </si>
+  <si>
+    <t>stroycomplex1@gmail.com</t>
+  </si>
+  <si>
+    <t>zhora1949</t>
+  </si>
+  <si>
+    <t>davtyannelli73@gmail.com</t>
+  </si>
+  <si>
+    <t>nelli1973</t>
+  </si>
+  <si>
+    <t>akhachatryan19881@mail.ru</t>
+  </si>
+  <si>
+    <t>arman1988</t>
+  </si>
+  <si>
+    <t>gavoyan1982@gmail.com</t>
+  </si>
+  <si>
+    <t>gevorg1982</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,14 +103,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000ff"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -109,6 +113,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -120,7 +132,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF558ed5"/>
+        <fgColor rgb="FF558ED5"/>
       </patternFill>
     </fill>
   </fills>
@@ -134,16 +146,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -155,44 +167,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -203,10 +217,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -244,71 +258,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -336,7 +350,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -359,11 +373,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -372,13 +386,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -388,7 +402,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -397,7 +411,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -406,7 +420,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -414,10 +428,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -482,22 +496,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="7" width="40.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="32.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="38.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="40.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,107 +524,111 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4" t="s">
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="4" t="s">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="4" t="s">
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="4" t="s">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="4"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{E216121B-2FAE-46B9-9559-683B2AB978DD}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{A67B9B16-E449-4147-B42A-7AE241ECAC19}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{B1CA0332-A63E-4F24-A5E8-C69014ABE0CC}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{DD2F78E7-3D28-4E84-83F2-FCB4F511688A}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{933338E6-3E9B-4C46-924A-25BE920855B3}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{DB41C75C-7F08-4C39-9436-BBA750BDF09C}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{DF7D773A-36A2-40E1-AC80-8AE4B71A794B}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{AC1139E8-F6AE-467C-A677-FFD4C02C6E62}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/credentials.xlsx
+++ b/data/credentials.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9330983B-0D09-43C2-B4C3-EC9E4A2FEA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Username</t>
   </si>
@@ -68,12 +62,6 @@
   </si>
   <si>
     <t>nelli1973</t>
-  </si>
-  <si>
-    <t>akhachatryan19881@mail.ru</t>
-  </si>
-  <si>
-    <t>arman1988</t>
   </si>
   <si>
     <t>gavoyan1982@gmail.com</t>
@@ -85,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -496,21 +484,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -584,18 +572,13 @@
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="A9" s="4"/>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -604,10 +587,9 @@
     </row>
     <row r="11" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
-      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
@@ -615,19 +597,15 @@
     <row r="14" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{E216121B-2FAE-46B9-9559-683B2AB978DD}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{A67B9B16-E449-4147-B42A-7AE241ECAC19}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{B1CA0332-A63E-4F24-A5E8-C69014ABE0CC}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{DD2F78E7-3D28-4E84-83F2-FCB4F511688A}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{933338E6-3E9B-4C46-924A-25BE920855B3}"/>
-    <hyperlink ref="A7" r:id="rId6" xr:uid="{DB41C75C-7F08-4C39-9436-BBA750BDF09C}"/>
-    <hyperlink ref="A8" r:id="rId7" xr:uid="{DF7D773A-36A2-40E1-AC80-8AE4B71A794B}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{AC1139E8-F6AE-467C-A677-FFD4C02C6E62}"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
